--- a/Test Execution/Feby/Fileuploaderror(AutoRecovered).xlsx
+++ b/Test Execution/Feby/Fileuploaderror(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Feby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FA3484-80DD-4235-80A9-AB60A09BC501}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263B890F-29DA-4609-87B8-255098752D7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Module</t>
   </si>
@@ -74,11 +74,6 @@
   <si>
     <t>In Result Delivery,when file is uploaded
 "File successfully uploaded" message displayed with something went wrong</t>
-  </si>
-  <si>
-    <t>In Radiology,Menu&gt;&gt;Query&gt;&gt;Patient search
- .docx,.xlsx,.pdf,.jpg,.png can be uploaded sucessfully
-but when .docx,.xlxs are uploaded and opened then it cannot be viewed</t>
   </si>
   <si>
     <t>Out Patient</t>
@@ -190,21 +185,179 @@
     <t>EMR</t>
   </si>
   <si>
+    <t xml:space="preserve">In Emr
+Select Inpatient Tab(Select a patient)
+File Attachment
+.jpg,.gif,.jpeg ,.png,.pdf,.mp4,.mp3 successfully uploaded 
+.doc,.docx,.xls,.xlsx successfully uploaded but when click on print icon no data is displayed in the space provided and also print page is blocked.
+In General Request&gt;&gt;Surgery Request(File Attach)
+When a patient is selected right side there is Medical Record Button&gt;&gt;Physical File
+.docx,.doc,.xls,.xlsx file uploaded but when click on print icon no data is displayed on the page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In EMR(Select patient)
+Medical Record Button
+In physical  files(The attached file is displayed)
+click to attach file is just blinked.
+1).pdf,.mp3,.mp4  loaded successfully
+2)when print icon is clicked (.jpg,.gif,.png) then something went wrong message is displayed
+3).docx ,.xlsx,.doc file is clicked for print option ,no dta is displayed instead it directly downloaded
+Emergency Visit Button
+</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>In Ip(Select In patient Tab)
+Select the patient(In right side there is a Medical Record Button(click the button))
+click the physical File
+1)Blinking of Attach file icon
+2)when .jpg,.gif is selected and click on print icon "The page Request is Invalid" message is displayed.
+3)when print icon is clicked for .docx format it is directly downloaded and no data is displayed in the space provided.</t>
+  </si>
+  <si>
+    <t>Ip</t>
+  </si>
+  <si>
+    <t>In Ip(Select In Patient Tab)
+In the list of patient just place the mouse over any patient .From there select the 
+File Attachment Icon
+1).jpg,.png,.gif, .xls,.xlsxs,.jpeg,.doc,.docx successfully uploaded but after when the user click on print icon no data is displayed.
+2).mp4,.mp3,.pdf uploaded and displayed successfully</t>
+  </si>
+  <si>
+    <t>Nursing Station</t>
+  </si>
+  <si>
+    <t>In nursing station(Select In Patient List Tab)
+From that select a Patient
+In the right side there is a Medical Record Button,select that button 
+From that select Physical Files
+1)Blinking of "click to attach file"
+2)while clicking on the print icon of .jpg,.gif, format then "The page request is invalid" message is displayed.
+3)while clicking on the print icon of .doc,.docx,.xls,.xlsx format a blank page is displayed.
+4).mp3,.mp4,.pdf files displayed successfully</t>
+  </si>
+  <si>
+    <t>In Nursing station(From Menu&gt;&gt;Patient Record)
+View Policy(Edit policy)
+1).jpg,.png,.pdf,.gif,.mp3,.mp4,.docx,.doc,.xls,.xlsx,.jpeg  format uploaded successfully.
+Add Policy
+All the specified format supported
+FTP File View
+1).gif,.jpg,.jpeg,.png,.doc,.docx,.pdf,.xls,.xlsx file uploaded successfully.
+2)When print is clicked for .gif,.jpg,.png,.jpeg,.doc,.docx,.xls,.xlsx no data is displayed in the space provided</t>
+  </si>
+  <si>
+    <t>MRD</t>
+  </si>
+  <si>
+    <t>In MRD(Select the diagonosis marking tab)
+enter patient id and click on search button then patient details displayed.Then just place the mouse over the patient from there click on attach icon.
+1).gif,.jpg,.png,.jpeg,.doc,.docx,.xls,.xlsx,.pdf uploaded successfully.
+2).mp4,.mp3,.pdf displayed successfully.
+3)while clicking on the print icon no data is displayed for .gif,.jpg,.png,.doc,.docx,.xls,.xlsx</t>
+  </si>
+  <si>
+    <t>Theatre</t>
+  </si>
+  <si>
+    <t>In Theatre(Menu&gt;&gt;Transaction&gt;&gt;Surgery Request)
+Specified formats are uploaded sucessfully .But once saved and after when the user select the patient then the uploaded file is not saved(doubt)
+Menu&gt;&gt;Theatre Booking(Enter the patient id and select the patient)
+click on attached document icon no data is displayed</t>
+  </si>
+  <si>
+    <t>Casuality</t>
+  </si>
+  <si>
+    <t>In Casualty(Select Outpatient List Tab)
+From the patient list select a patient(From Transaction&gt;&gt;File Attachment)
+1)All the specified format uploaded successfully
+2)After uploading the files when user tries to click on the print icon for the file formats .jpg,.gif,.png,.pdf,.mp4,.mp3 sucessfully displayed.
+3).doc,.docx,.xls,.xlsx no data is displayed</t>
+  </si>
+  <si>
+    <t>In Casualty(Select Observations Tab)
+Either select the patient and select file attachment tab or just place the mouse over the patient and click on file attachment icon
+1)All the specified file format uploaded sucessfully
+2)After uploading when user click on print icon for the format .gif ,.jpg,.png,.doc,.docx,.xls,.xlsx,no data is displayed.</t>
+  </si>
+  <si>
+    <t>Casualty</t>
+  </si>
+  <si>
+    <t>In Menu&gt;&gt;Admission
+Add Insurance
+all the specified format sucessfully uploaded
+Select Document Tab
+The file format is not specified so I uploaded zip file but file uploaded blank data.
+In Menu&gt;&gt;Consolidate Bill(Add Insurance)
+1)All specified format uploaded sucessfully.
+In Menu&gt;&gt;Patient Search(View Policy,Edit Insurance)
+All specified format uploaded sucessfully.
+click on Add Policy button.
+All the specified format uploaded sucessfully.
+Click on FTP File view Button
+1)All the specified format uploaded sucessfully.
+2)click on print (.gif,.jpg,.jpeg,.png,.doc,.docx,.xls,.xlsx),no data is displayed.</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>In insurance select OP Approval Tab
+Just place the mouse pointer on any patient,from that select the file attachment icon
+1)All the specified format uploaded successfully.(There is no delete option)
+2)click on print icon(.xls,.xlsx,.docx,.doc,.png,.jpg,jpeg)no data is displayed.</t>
+  </si>
+  <si>
+    <t>In insurance select Ip Approval Tab
+(select the patient)
+All the specified format uploaded sucessfully.
+In insurance select Ip Approval Tab
+In the patient list just place mouse on the patient list and select attach icon
+1)All specified format uploaded sucessfully.
+2)After uploading click on print icon(.gif,.jpg,.png,.doc,.docx,.xls,.xlsx),no data is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Radiology (Select Result Entry Tab)
+Select a patient from the list
+Attach a file"File successfully attached and Something went wrong" message is displayed.
+</t>
+  </si>
+  <si>
+    <t>In Radiology,Menu&gt;&gt;Query&gt;&gt;Patient search(View Policy)Edit&gt;&gt;Add policy
+ .docx,.xlsx,.pdf,.jpg,.png can be uploaded sucessfully
+but when .docx,.xlxs are uploaded and opened then it cannot be viewed
+View Policy
+All the specified format uploaded sucessfrully.
+FTP File View
+1)All the specified format uploaded successfully.
+2)After Uploading the file when the user click on print option(.gif,.jpg,.xlx,.xlsx,.doc,.docx) no data is displayed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Select Out patient tab(Select a patient from list)
 In Doctors notes(File Attachment)
 .gif,.jpg,.jpeg,.pdf(Also print page is also successfully displayed)
 .docx,.xls,.xlsx(When print option is given page is displayed with no data)
 .mp3,.mp4 also uploaded successfully.
 Request(Surgery Request)
+choose the file and click on upload button and after that choose another file and there is no upload button.
+Also when user click on the view of the file"(.doc,.docx,.xls,.xlsx)no data is displayed.
+Also there is an attach document icon(No data is displayed in it)(sometimes)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">In Menu&gt;&gt;Transaction(Surgery Request List)
+    <t xml:space="preserve">In Menu&gt;&gt;Transaction(Surgery Request List)click on new surgery button
+when one file is uploaded sucessfully and user tries to upload another file then "upload button is disappeared"
 </t>
   </si>
   <si>
-    <t xml:space="preserve">In Menu(Master&gt;&gt;Medicine Upload Master)
-</t>
+    <t>In Menu(Master&gt;&gt;Medicine Upload Master)
+when the file is uploaded then the regulatory dropdown chanded to select option and External Table in the Expected ForMAT is Displayed</t>
   </si>
 </sst>
 </file>
@@ -532,9 +685,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -558,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -569,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -585,7 +738,7 @@
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -593,29 +746,29 @@
     </row>
     <row r="7" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -623,10 +776,10 @@
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -639,85 +792,203 @@
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="24" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="25" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="38" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>13</v>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Test Execution/Feby/Fileuploaderror(AutoRecovered).xlsx
+++ b/Test Execution/Feby/Fileuploaderror(AutoRecovered).xlsx
@@ -8,24 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Feby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263B890F-29DA-4609-87B8-255098752D7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732C6BE5-10C4-4725-BD3A-11F351D12AD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>Module</t>
   </si>
@@ -358,6 +363,24 @@
   <si>
     <t>In Menu(Master&gt;&gt;Medicine Upload Master)
 when the file is uploaded then the regulatory dropdown chanded to select option and External Table in the Expected ForMAT is Displayed</t>
+  </si>
+  <si>
+    <t>Lab Result</t>
+  </si>
+  <si>
+    <t>In Menu&gt;&gt;Outside Result Attach
+ File is attached successfully but when click on View Attachment 
+The content in the file is same but the name of the file is different with extension is correct</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the Tab Grn View
+From the list of patient ,Select a patient and click on F9 for File Attachment
+1)File type is not specified.
+2)Same file can be uploaded many times.
+</t>
   </si>
 </sst>
 </file>
@@ -685,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,22 +995,47 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="43" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Test Execution/Feby/Fileuploaderror(AutoRecovered).xlsx
+++ b/Test Execution/Feby/Fileuploaderror(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Feby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732C6BE5-10C4-4725-BD3A-11F351D12AD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138766DD-F44D-42E9-8965-ECBE62E8AB8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>Module</t>
   </si>
@@ -381,6 +381,59 @@
 1)File type is not specified.
 2)Same file can be uploaded many times.
 </t>
+  </si>
+  <si>
+    <t>Defect Id</t>
+  </si>
+  <si>
+    <t>EQ1-I750
+EQ1-I748</t>
+  </si>
+  <si>
+    <t>EQ1-I822</t>
+  </si>
+  <si>
+    <t>EQ1-I750</t>
+  </si>
+  <si>
+    <t>In Emr&gt;&gt;Select a patient
+From Menu&gt;&gt;General head&gt;&gt;Patient Education Docs
+Click on new document,insert data in the fields
+Attach a file("File upload fail with error message.")</t>
+  </si>
+  <si>
+    <t>EQ1-I166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQ1-I824
+</t>
+  </si>
+  <si>
+    <t>CAREDESK</t>
+  </si>
+  <si>
+    <t>select the patient from the list
+In the rightside click on medical record button
+Select the physical file(The attached file is displayed there)
+click on the print icon then "The page you request is invalid" message is displayed.</t>
+  </si>
+  <si>
+    <t>EQ1-I826</t>
+  </si>
+  <si>
+    <t>EQ1-I828</t>
+  </si>
+  <si>
+    <t>EQ1-I833</t>
+  </si>
+  <si>
+    <t>EQ1-I835</t>
+  </si>
+  <si>
+    <t>EQ1-I838</t>
+  </si>
+  <si>
+    <t>EQ1-I843</t>
   </si>
 </sst>
 </file>
@@ -708,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,15 +774,18 @@
     <col min="3" max="3" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -739,8 +795,11 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -751,7 +810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -759,7 +818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -767,7 +826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -775,7 +834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -783,7 +842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -794,10 +853,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -805,23 +864,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -829,7 +894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -837,15 +902,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -853,7 +921,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -861,7 +929,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -869,7 +937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -877,18 +945,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -898,121 +977,147 @@
       <c r="C23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
@@ -1023,19 +1128,22 @@
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Test Execution/Feby/Fileuploaderror(AutoRecovered).xlsx
+++ b/Test Execution/Feby/Fileuploaderror(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Feby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138766DD-F44D-42E9-8965-ECBE62E8AB8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC23E4C-AF15-4568-80AF-351A703624A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="3540" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>Module</t>
   </si>
@@ -434,6 +434,39 @@
   </si>
   <si>
     <t>EQ1-I843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the Bookinglist Tab
+From the list of patient,select a patient
+Select the Medical Record Button on the right side
+From there select the Physical File Tab
+</t>
+  </si>
+  <si>
+    <t>EQ1-I850</t>
+  </si>
+  <si>
+    <t>EQ1-I854</t>
+  </si>
+  <si>
+    <t>EQ1-I685</t>
+  </si>
+  <si>
+    <t>Delete icon is missing in file upload.
+EQ1-I727</t>
+  </si>
+  <si>
+    <t>EQ1-I861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File type is not specified
+</t>
+  </si>
+  <si>
+    <t>EQ1-I653</t>
+  </si>
+  <si>
+    <t>EQ1-I872</t>
   </si>
 </sst>
 </file>
@@ -761,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,20 +1080,26 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>41</v>
+      <c r="D31" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -1068,83 +1107,109 @@
         <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="E33" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
